--- a/biology/Histoire de la zoologie et de la botanique/Johann_Wilhelm_Meigen/Johann_Wilhelm_Meigen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Wilhelm_Meigen/Johann_Wilhelm_Meigen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Wilhelm Meigen est un entomologiste allemand, né le 3 mai 1764 à Solingen et mort le 11 juillet 1845 à Stolberg près d'Aix-la-Chapelle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le cinquième d'une fratrie de huit enfants. D'un milieu très modeste, ses parents tiennent une épicerie à Solingen. Il s'intéresse à la nature dès son jeune âge et commence ainsi, à une dizaine d'années, sa première collection de papillons. Il reçoit une première éducation en mathématique et particulièrement en français.
 Il se rend en 1784 à Aix-la-Chapelle pour y servir comme précepteur auprès d'un marchand, M. Pelzer. Un de ses cousins, Johann Matthias Baumhauer (1759-1818), marchand de laine, se passionnait pour l'entomologie et détenait une collection, notamment de papillons, renommée (aujourd'hui en partie conservée au musée de zoologie de l'université de Liège). Bientôt, le jeune Meigen l'assiste dans la l'entretien de sa collection qui comptait près de 1 200 espèces (une partie de celle-ci sera acquise, après la mort de Baumhauer, par le muséum de Leyde).
